--- a/results/scored/NSCLC_hpo.xlsx
+++ b/results/scored/NSCLC_hpo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/PhD/Projects/LLM PICO/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/pico-parser-llm/results/scored/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999C1598-877E-FC4C-A7C3-71C4ACBE7BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE3FABD-78E8-2647-B833-9E6EB6BE5422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="28300" xr2:uid="{94ED0F72-83BA-0D42-BD77-66A26D61B195}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="28300" activeTab="2" xr2:uid="{94ED0F72-83BA-0D42-BD77-66A26D61B195}"/>
   </bookViews>
   <sheets>
     <sheet name="NSCLC_PC_base" sheetId="26" r:id="rId1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="168">
   <si>
     <t>PICO_ID</t>
   </si>
@@ -1985,13 +1985,16 @@
   </si>
   <si>
     <t>No mention of "Advanced NSCLC" and "KRAS mutatiom"</t>
+  </si>
+  <si>
+    <t>Outcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3614,12 +3617,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52A9400-6C1F-E444-85C3-E7311C65B152}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="60.83203125" style="2"/>
@@ -3628,7 +3631,7 @@
     <col min="7" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -3665,7 +3668,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="40" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -3679,7 +3682,7 @@
       <c r="E3" s="87"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -3697,7 +3700,7 @@
       </c>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="40" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -3711,7 +3714,7 @@
       <c r="E5" s="88"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -3729,7 +3732,7 @@
       </c>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="40" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3746,7 @@
       <c r="E7" s="89"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -3761,7 +3764,7 @@
       </c>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -3795,7 +3798,7 @@
       </c>
       <c r="F10" s="96"/>
     </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="40" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
@@ -3829,7 +3832,7 @@
       </c>
       <c r="F12" s="97"/>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -3863,7 +3866,7 @@
       </c>
       <c r="F14" s="96"/>
     </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
@@ -3877,7 +3880,7 @@
       <c r="E15" s="89"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -3895,7 +3898,7 @@
       </c>
       <c r="F16" s="96"/>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -3909,7 +3912,7 @@
       <c r="E17" s="89"/>
       <c r="F17" s="98"/>
     </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -3927,7 +3930,7 @@
       </c>
       <c r="F18" s="98"/>
     </row>
-    <row r="19" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="51" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -3941,7 +3944,7 @@
       <c r="E19" s="89"/>
       <c r="F19" s="96"/>
     </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -3959,7 +3962,7 @@
       </c>
       <c r="F20" s="96"/>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -3993,7 +3996,7 @@
       </c>
       <c r="F22" s="96"/>
     </row>
-    <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="40" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
@@ -4007,7 +4010,7 @@
       <c r="E23" s="90"/>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="35" t="s">
         <v>45</v>
       </c>
@@ -4025,7 +4028,7 @@
       </c>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
@@ -4039,7 +4042,7 @@
       <c r="E25" s="90"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="35" t="s">
         <v>46</v>
       </c>
@@ -4057,7 +4060,7 @@
       </c>
       <c r="F26" s="44"/>
     </row>
-    <row r="27" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="40" customHeight="1">
       <c r="A27" s="38" t="s">
         <v>31</v>
       </c>
@@ -4071,7 +4074,7 @@
       <c r="E27" s="89"/>
       <c r="F27" s="42"/>
     </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>47</v>
       </c>
@@ -4089,7 +4092,7 @@
       </c>
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="38" t="s">
         <v>32</v>
       </c>
@@ -4103,7 +4106,7 @@
       <c r="E29" s="89"/>
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>48</v>
       </c>
@@ -4121,7 +4124,7 @@
       </c>
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="40" customHeight="1">
       <c r="A31" s="38" t="s">
         <v>33</v>
       </c>
@@ -4135,7 +4138,7 @@
       <c r="E31" s="89"/>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A32" s="35" t="s">
         <v>49</v>
       </c>
@@ -4153,7 +4156,7 @@
       </c>
       <c r="F32" s="42"/>
     </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="51">
       <c r="A33" s="38" t="s">
         <v>78</v>
       </c>
@@ -4167,7 +4170,7 @@
       <c r="E33" s="89"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="36" t="s">
         <v>79</v>
       </c>
@@ -4185,7 +4188,7 @@
       </c>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="49" customHeight="1">
       <c r="A35" s="47" t="s">
         <v>50</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -4219,7 +4222,7 @@
       </c>
       <c r="F36" s="96"/>
     </row>
-    <row r="37" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="48" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>53</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
@@ -4253,7 +4256,7 @@
       </c>
       <c r="F38" s="96"/>
     </row>
-    <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="40" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>55</v>
       </c>
@@ -4267,7 +4270,7 @@
       <c r="E39" s="88"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A40" s="48" t="s">
         <v>56</v>
       </c>
@@ -4281,7 +4284,7 @@
       <c r="E40" s="88"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="41" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="51">
       <c r="A41" s="50" t="s">
         <v>57</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A42" s="48" t="s">
         <v>58</v>
       </c>
@@ -4317,7 +4320,7 @@
       </c>
       <c r="F42" s="96"/>
     </row>
-    <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="40" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>74</v>
       </c>
@@ -4331,17 +4334,21 @@
       <c r="E43" s="88"/>
       <c r="F43" s="96"/>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A44" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
+      <c r="B44" s="30">
+        <v>0</v>
+      </c>
+      <c r="C44" s="31">
+        <v>0</v>
+      </c>
       <c r="D44" s="83"/>
       <c r="E44" s="88"/>
       <c r="F44" s="96"/>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="50" t="s">
         <v>92</v>
       </c>
@@ -4357,7 +4364,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A46" s="53" t="s">
         <v>93</v>
       </c>
@@ -4375,7 +4382,7 @@
       </c>
       <c r="F46" s="96"/>
     </row>
-    <row r="47" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="49" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>51</v>
       </c>
@@ -4389,7 +4396,7 @@
       <c r="E47" s="88"/>
       <c r="F47" s="42"/>
     </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>60</v>
       </c>
@@ -4407,7 +4414,7 @@
       </c>
       <c r="F48" s="42"/>
     </row>
-    <row r="49" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="49" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>61</v>
       </c>
@@ -4421,7 +4428,7 @@
       <c r="E49" s="88"/>
       <c r="F49" s="42"/>
     </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A50" s="52" t="s">
         <v>62</v>
       </c>
@@ -4439,7 +4446,7 @@
       </c>
       <c r="F50" s="42"/>
     </row>
-    <row r="51" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="49" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>63</v>
       </c>
@@ -4453,7 +4460,7 @@
       <c r="E51" s="88"/>
       <c r="F51" s="42"/>
     </row>
-    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A52" s="52" t="s">
         <v>64</v>
       </c>
@@ -4471,7 +4478,7 @@
       </c>
       <c r="F52" s="42"/>
     </row>
-    <row r="53" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="54" customHeight="1">
       <c r="A53" s="51" t="s">
         <v>65</v>
       </c>
@@ -4487,7 +4494,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A54" s="52" t="s">
         <v>66</v>
       </c>
@@ -4505,7 +4512,7 @@
       </c>
       <c r="F54" s="42"/>
     </row>
-    <row r="55" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="49" customHeight="1">
       <c r="A55" s="51" t="s">
         <v>67</v>
       </c>
@@ -4519,7 +4526,7 @@
       <c r="E55" s="88"/>
       <c r="F55" s="42"/>
     </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A56" s="52" t="s">
         <v>68</v>
       </c>
@@ -4537,7 +4544,7 @@
       </c>
       <c r="F56" s="42"/>
     </row>
-    <row r="57" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="49" customHeight="1">
       <c r="A57" s="51" t="s">
         <v>87</v>
       </c>
@@ -4551,7 +4558,7 @@
       <c r="E57" s="88"/>
       <c r="F57" s="96"/>
     </row>
-    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A58" s="52" t="s">
         <v>88</v>
       </c>
@@ -4569,27 +4576,27 @@
       </c>
       <c r="F58" s="96"/>
     </row>
-    <row r="60" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="40" customHeight="1">
       <c r="A60" s="54"/>
     </row>
-    <row r="61" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="40" customHeight="1">
       <c r="A61" s="54"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="40" customHeight="1">
       <c r="A62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="40" customHeight="1">
       <c r="A63" s="54"/>
     </row>
-    <row r="64" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="40" customHeight="1">
       <c r="A64" s="54"/>
     </row>
-    <row r="65" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="40" customHeight="1">
       <c r="A65" s="54"/>
     </row>
-    <row r="66" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="40" customHeight="1">
       <c r="A66" s="54"/>
     </row>
   </sheetData>
@@ -4617,11 +4624,11 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A31:C39"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" style="61" customWidth="1"/>
     <col min="2" max="2" width="60.83203125" style="2"/>
@@ -4630,16 +4637,18 @@
     <col min="5" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="C1" s="71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -4648,7 +4657,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="40" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
@@ -4657,7 +4666,7 @@
       </c>
       <c r="C3" s="101"/>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -4666,7 +4675,7 @@
       </c>
       <c r="C4" s="102"/>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
@@ -4675,7 +4684,7 @@
       </c>
       <c r="C5" s="103"/>
     </row>
-    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -4684,7 +4693,7 @@
       </c>
       <c r="C6" s="104"/>
     </row>
-    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119">
       <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
@@ -4695,7 +4704,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -4704,7 +4713,7 @@
       </c>
       <c r="C8" s="106"/>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
@@ -4715,7 +4724,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -4724,7 +4733,7 @@
       </c>
       <c r="C10" s="106"/>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>107</v>
       </c>
@@ -4733,7 +4742,7 @@
       </c>
       <c r="C11" s="103"/>
     </row>
-    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
@@ -4742,7 +4751,7 @@
       </c>
       <c r="C12" s="104"/>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>9</v>
       </c>
@@ -4751,7 +4760,7 @@
       </c>
       <c r="C13" s="103"/>
     </row>
-    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -4760,7 +4769,7 @@
       </c>
       <c r="C14" s="104"/>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>10</v>
       </c>
@@ -4771,7 +4780,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -4780,7 +4789,7 @@
       </c>
       <c r="C16" s="106"/>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
@@ -4789,7 +4798,7 @@
       </c>
       <c r="C17" s="103"/>
     </row>
-    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="36" t="s">
         <v>36</v>
       </c>
@@ -4798,7 +4807,7 @@
       </c>
       <c r="C18" s="104"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="51">
       <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
@@ -4807,7 +4816,7 @@
       </c>
       <c r="C19" s="103"/>
     </row>
-    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -4816,7 +4825,7 @@
       </c>
       <c r="C20" s="104"/>
     </row>
-    <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="51" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>14</v>
       </c>
@@ -4825,7 +4834,7 @@
       </c>
       <c r="C21" s="105"/>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -4834,7 +4843,7 @@
       </c>
       <c r="C22" s="107"/>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>109</v>
       </c>
@@ -4845,7 +4854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="36" t="s">
         <v>110</v>
       </c>
@@ -4854,7 +4863,7 @@
       </c>
       <c r="C24" s="108"/>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>111</v>
       </c>
@@ -4863,7 +4872,7 @@
       </c>
       <c r="C25" s="99"/>
     </row>
-    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>112</v>
       </c>
@@ -4872,7 +4881,7 @@
       </c>
       <c r="C26" s="100"/>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>113</v>
       </c>
@@ -4883,7 +4892,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>114</v>
       </c>
@@ -4892,7 +4901,7 @@
       </c>
       <c r="C28" s="106"/>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>115</v>
       </c>
@@ -4901,7 +4910,7 @@
       </c>
       <c r="C29" s="105"/>
     </row>
-    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>116</v>
       </c>
@@ -4910,180 +4919,180 @@
       </c>
       <c r="C30" s="106"/>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
       <c r="C31" s="109"/>
     </row>
-    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
       <c r="C32" s="109"/>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
       <c r="C33" s="110"/>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
       <c r="C34" s="110"/>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A35" s="54"/>
       <c r="B35" s="9"/>
       <c r="C35" s="73"/>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
       <c r="C36" s="109"/>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
       <c r="C37" s="109"/>
     </row>
-    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
       <c r="C38" s="109"/>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
       <c r="C39" s="109"/>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
       <c r="C40" s="109"/>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
       <c r="C41" s="109"/>
     </row>
-    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
       <c r="C42" s="109"/>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
       <c r="C43" s="109"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
       <c r="C44" s="109"/>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
       <c r="C45" s="109"/>
     </row>
-    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
       <c r="C46" s="110"/>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
       <c r="C47" s="110"/>
     </row>
-    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
       <c r="C48" s="110"/>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
       <c r="C49" s="110"/>
     </row>
-    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
       <c r="C50" s="109"/>
     </row>
-    <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="43" customHeight="1">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
       <c r="C51" s="109"/>
     </row>
-    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
       <c r="C52" s="109"/>
     </row>
-    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
       <c r="C53" s="109"/>
     </row>
-    <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="49" customHeight="1">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="109"/>
     </row>
-    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
       <c r="C55" s="109"/>
     </row>
-    <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="49" customHeight="1">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
       <c r="C56" s="109"/>
     </row>
-    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
       <c r="C57" s="109"/>
     </row>
-    <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="49" customHeight="1">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
       <c r="C58" s="109"/>
     </row>
-    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
       <c r="C59" s="109"/>
     </row>
-    <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="54" customHeight="1">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
       <c r="C60" s="110"/>
     </row>
-    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
       <c r="C61" s="110"/>
     </row>
-    <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="49" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="58"/>
       <c r="B63" s="9"/>
       <c r="C63" s="74"/>
     </row>
-    <row r="64" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="49" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="60"/>
       <c r="B65" s="9"/>
       <c r="C65" s="74"/>
     </row>
-    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="58"/>
       <c r="B66" s="9"/>
       <c r="C66" s="74"/>
@@ -5130,10 +5139,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:B38"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" style="61" customWidth="1"/>
     <col min="2" max="2" width="60.83203125" style="2"/>
@@ -5142,16 +5151,18 @@
     <col min="5" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="C1" s="71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -5160,7 +5171,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="40" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
@@ -5169,7 +5180,7 @@
       </c>
       <c r="C3" s="101"/>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -5178,7 +5189,7 @@
       </c>
       <c r="C4" s="102"/>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
@@ -5187,7 +5198,7 @@
       </c>
       <c r="C5" s="103"/>
     </row>
-    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -5196,7 +5207,7 @@
       </c>
       <c r="C6" s="104"/>
     </row>
-    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119">
       <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
@@ -5207,7 +5218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -5216,7 +5227,7 @@
       </c>
       <c r="C8" s="106"/>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
@@ -5227,7 +5238,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -5236,7 +5247,7 @@
       </c>
       <c r="C10" s="106"/>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>107</v>
       </c>
@@ -5245,7 +5256,7 @@
       </c>
       <c r="C11" s="103"/>
     </row>
-    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
@@ -5254,7 +5265,7 @@
       </c>
       <c r="C12" s="104"/>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>9</v>
       </c>
@@ -5263,7 +5274,7 @@
       </c>
       <c r="C13" s="103"/>
     </row>
-    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -5272,7 +5283,7 @@
       </c>
       <c r="C14" s="104"/>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>10</v>
       </c>
@@ -5281,7 +5292,7 @@
       </c>
       <c r="C15" s="105"/>
     </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -5290,7 +5301,7 @@
       </c>
       <c r="C16" s="106"/>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
@@ -5299,7 +5310,7 @@
       </c>
       <c r="C17" s="103"/>
     </row>
-    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="36" t="s">
         <v>36</v>
       </c>
@@ -5308,7 +5319,7 @@
       </c>
       <c r="C18" s="104"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="51">
       <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
@@ -5317,7 +5328,7 @@
       </c>
       <c r="C19" s="103"/>
     </row>
-    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -5326,7 +5337,7 @@
       </c>
       <c r="C20" s="104"/>
     </row>
-    <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="51" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>14</v>
       </c>
@@ -5335,7 +5346,7 @@
       </c>
       <c r="C21" s="105"/>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -5344,7 +5355,7 @@
       </c>
       <c r="C22" s="107"/>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>109</v>
       </c>
@@ -5355,7 +5366,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="36" t="s">
         <v>110</v>
       </c>
@@ -5364,7 +5375,7 @@
       </c>
       <c r="C24" s="108"/>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>111</v>
       </c>
@@ -5373,7 +5384,7 @@
       </c>
       <c r="C25" s="99"/>
     </row>
-    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>112</v>
       </c>
@@ -5382,7 +5393,7 @@
       </c>
       <c r="C26" s="100"/>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>113</v>
       </c>
@@ -5393,7 +5404,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>114</v>
       </c>
@@ -5402,7 +5413,7 @@
       </c>
       <c r="C28" s="106"/>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>115</v>
       </c>
@@ -5411,7 +5422,7 @@
       </c>
       <c r="C29" s="105"/>
     </row>
-    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>116</v>
       </c>
@@ -5420,180 +5431,180 @@
       </c>
       <c r="C30" s="106"/>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
       <c r="C31" s="109"/>
     </row>
-    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
       <c r="C32" s="109"/>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
       <c r="C33" s="110"/>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
       <c r="C34" s="110"/>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A35" s="54"/>
       <c r="B35" s="9"/>
       <c r="C35" s="73"/>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
       <c r="C36" s="109"/>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
       <c r="C37" s="109"/>
     </row>
-    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
       <c r="C38" s="109"/>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
       <c r="C39" s="109"/>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
       <c r="C40" s="109"/>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
       <c r="C41" s="109"/>
     </row>
-    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
       <c r="C42" s="109"/>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
       <c r="C43" s="109"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
       <c r="C44" s="109"/>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
       <c r="C45" s="109"/>
     </row>
-    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
       <c r="C46" s="110"/>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
       <c r="C47" s="110"/>
     </row>
-    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
       <c r="C48" s="110"/>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
       <c r="C49" s="110"/>
     </row>
-    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
       <c r="C50" s="109"/>
     </row>
-    <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="43" customHeight="1">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
       <c r="C51" s="109"/>
     </row>
-    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
       <c r="C52" s="109"/>
     </row>
-    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
       <c r="C53" s="109"/>
     </row>
-    <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="49" customHeight="1">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="109"/>
     </row>
-    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
       <c r="C55" s="109"/>
     </row>
-    <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="49" customHeight="1">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
       <c r="C56" s="109"/>
     </row>
-    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
       <c r="C57" s="109"/>
     </row>
-    <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="49" customHeight="1">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
       <c r="C58" s="109"/>
     </row>
-    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
       <c r="C59" s="109"/>
     </row>
-    <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="54" customHeight="1">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
       <c r="C60" s="110"/>
     </row>
-    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
       <c r="C61" s="110"/>
     </row>
-    <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="49" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="58"/>
       <c r="B63" s="9"/>
       <c r="C63" s="74"/>
     </row>
-    <row r="64" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="49" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="60"/>
       <c r="B65" s="9"/>
       <c r="C65" s="74"/>
     </row>
-    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="58"/>
       <c r="B66" s="9"/>
       <c r="C66" s="74"/>
@@ -5640,10 +5651,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:B38"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" style="61" customWidth="1"/>
     <col min="2" max="2" width="60.83203125" style="2"/>
@@ -5652,16 +5663,18 @@
     <col min="5" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="C1" s="71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -5670,7 +5683,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="40" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
@@ -5679,7 +5692,7 @@
       </c>
       <c r="C3" s="101"/>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -5688,7 +5701,7 @@
       </c>
       <c r="C4" s="102"/>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
@@ -5697,7 +5710,7 @@
       </c>
       <c r="C5" s="103"/>
     </row>
-    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -5706,7 +5719,7 @@
       </c>
       <c r="C6" s="104"/>
     </row>
-    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119">
       <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
@@ -5717,7 +5730,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -5726,7 +5739,7 @@
       </c>
       <c r="C8" s="106"/>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
@@ -5737,7 +5750,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -5746,7 +5759,7 @@
       </c>
       <c r="C10" s="106"/>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>107</v>
       </c>
@@ -5755,7 +5768,7 @@
       </c>
       <c r="C11" s="103"/>
     </row>
-    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
@@ -5764,7 +5777,7 @@
       </c>
       <c r="C12" s="104"/>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>9</v>
       </c>
@@ -5773,7 +5786,7 @@
       </c>
       <c r="C13" s="103"/>
     </row>
-    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -5782,7 +5795,7 @@
       </c>
       <c r="C14" s="104"/>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>10</v>
       </c>
@@ -5791,7 +5804,7 @@
       </c>
       <c r="C15" s="105"/>
     </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -5800,7 +5813,7 @@
       </c>
       <c r="C16" s="106"/>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
@@ -5809,7 +5822,7 @@
       </c>
       <c r="C17" s="103"/>
     </row>
-    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="36" t="s">
         <v>36</v>
       </c>
@@ -5818,7 +5831,7 @@
       </c>
       <c r="C18" s="104"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="51">
       <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
@@ -5827,7 +5840,7 @@
       </c>
       <c r="C19" s="103"/>
     </row>
-    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -5836,7 +5849,7 @@
       </c>
       <c r="C20" s="104"/>
     </row>
-    <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="51" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>14</v>
       </c>
@@ -5845,7 +5858,7 @@
       </c>
       <c r="C21" s="105"/>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -5854,7 +5867,7 @@
       </c>
       <c r="C22" s="107"/>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>109</v>
       </c>
@@ -5865,7 +5878,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="36" t="s">
         <v>110</v>
       </c>
@@ -5874,7 +5887,7 @@
       </c>
       <c r="C24" s="108"/>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>111</v>
       </c>
@@ -5883,7 +5896,7 @@
       </c>
       <c r="C25" s="99"/>
     </row>
-    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>112</v>
       </c>
@@ -5892,7 +5905,7 @@
       </c>
       <c r="C26" s="100"/>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>113</v>
       </c>
@@ -5903,7 +5916,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>114</v>
       </c>
@@ -5912,7 +5925,7 @@
       </c>
       <c r="C28" s="106"/>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>115</v>
       </c>
@@ -5921,7 +5934,7 @@
       </c>
       <c r="C29" s="105"/>
     </row>
-    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>116</v>
       </c>
@@ -5930,180 +5943,180 @@
       </c>
       <c r="C30" s="106"/>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
       <c r="C31" s="109"/>
     </row>
-    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
       <c r="C32" s="109"/>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
       <c r="C33" s="110"/>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
       <c r="C34" s="110"/>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A35" s="54"/>
       <c r="B35" s="9"/>
       <c r="C35" s="73"/>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
       <c r="C36" s="109"/>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
       <c r="C37" s="109"/>
     </row>
-    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
       <c r="C38" s="109"/>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
       <c r="C39" s="109"/>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
       <c r="C40" s="109"/>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
       <c r="C41" s="109"/>
     </row>
-    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
       <c r="C42" s="109"/>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
       <c r="C43" s="109"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
       <c r="C44" s="109"/>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
       <c r="C45" s="109"/>
     </row>
-    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
       <c r="C46" s="110"/>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
       <c r="C47" s="110"/>
     </row>
-    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
       <c r="C48" s="110"/>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
       <c r="C49" s="110"/>
     </row>
-    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
       <c r="C50" s="109"/>
     </row>
-    <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="43" customHeight="1">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
       <c r="C51" s="109"/>
     </row>
-    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
       <c r="C52" s="109"/>
     </row>
-    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
       <c r="C53" s="109"/>
     </row>
-    <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="49" customHeight="1">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="109"/>
     </row>
-    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
       <c r="C55" s="109"/>
     </row>
-    <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="49" customHeight="1">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
       <c r="C56" s="109"/>
     </row>
-    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
       <c r="C57" s="109"/>
     </row>
-    <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="49" customHeight="1">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
       <c r="C58" s="109"/>
     </row>
-    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
       <c r="C59" s="109"/>
     </row>
-    <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="54" customHeight="1">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
       <c r="C60" s="110"/>
     </row>
-    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
       <c r="C61" s="110"/>
     </row>
-    <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="49" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="58"/>
       <c r="B63" s="9"/>
       <c r="C63" s="74"/>
     </row>
-    <row r="64" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="49" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="60"/>
       <c r="B65" s="9"/>
       <c r="C65" s="74"/>
     </row>
-    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="58"/>
       <c r="B66" s="9"/>
       <c r="C66" s="74"/>
@@ -6150,10 +6163,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:B38"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" style="61" customWidth="1"/>
     <col min="2" max="2" width="60.83203125" style="2"/>
@@ -6162,16 +6175,18 @@
     <col min="5" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="C1" s="71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -6180,7 +6195,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="40" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
@@ -6189,7 +6204,7 @@
       </c>
       <c r="C3" s="101"/>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -6198,7 +6213,7 @@
       </c>
       <c r="C4" s="102"/>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
@@ -6207,7 +6222,7 @@
       </c>
       <c r="C5" s="103"/>
     </row>
-    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -6216,7 +6231,7 @@
       </c>
       <c r="C6" s="104"/>
     </row>
-    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119">
       <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
@@ -6227,7 +6242,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -6236,7 +6251,7 @@
       </c>
       <c r="C8" s="106"/>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
@@ -6247,7 +6262,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -6256,7 +6271,7 @@
       </c>
       <c r="C10" s="106"/>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>107</v>
       </c>
@@ -6265,7 +6280,7 @@
       </c>
       <c r="C11" s="103"/>
     </row>
-    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
@@ -6274,7 +6289,7 @@
       </c>
       <c r="C12" s="104"/>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>9</v>
       </c>
@@ -6283,7 +6298,7 @@
       </c>
       <c r="C13" s="103"/>
     </row>
-    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -6292,7 +6307,7 @@
       </c>
       <c r="C14" s="104"/>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>10</v>
       </c>
@@ -6301,7 +6316,7 @@
       </c>
       <c r="C15" s="105"/>
     </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -6310,7 +6325,7 @@
       </c>
       <c r="C16" s="106"/>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
@@ -6319,7 +6334,7 @@
       </c>
       <c r="C17" s="103"/>
     </row>
-    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="36" t="s">
         <v>36</v>
       </c>
@@ -6328,7 +6343,7 @@
       </c>
       <c r="C18" s="104"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="51">
       <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
@@ -6337,7 +6352,7 @@
       </c>
       <c r="C19" s="103"/>
     </row>
-    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -6346,7 +6361,7 @@
       </c>
       <c r="C20" s="104"/>
     </row>
-    <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="51" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>14</v>
       </c>
@@ -6355,7 +6370,7 @@
       </c>
       <c r="C21" s="105"/>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -6364,7 +6379,7 @@
       </c>
       <c r="C22" s="107"/>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>109</v>
       </c>
@@ -6375,7 +6390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="36" t="s">
         <v>110</v>
       </c>
@@ -6384,7 +6399,7 @@
       </c>
       <c r="C24" s="108"/>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>111</v>
       </c>
@@ -6393,7 +6408,7 @@
       </c>
       <c r="C25" s="99"/>
     </row>
-    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>112</v>
       </c>
@@ -6402,7 +6417,7 @@
       </c>
       <c r="C26" s="100"/>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>113</v>
       </c>
@@ -6413,7 +6428,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>114</v>
       </c>
@@ -6422,7 +6437,7 @@
       </c>
       <c r="C28" s="106"/>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>115</v>
       </c>
@@ -6431,7 +6446,7 @@
       </c>
       <c r="C29" s="105"/>
     </row>
-    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>116</v>
       </c>
@@ -6440,180 +6455,180 @@
       </c>
       <c r="C30" s="106"/>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
       <c r="C31" s="109"/>
     </row>
-    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
       <c r="C32" s="109"/>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
       <c r="C33" s="110"/>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
       <c r="C34" s="110"/>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A35" s="54"/>
       <c r="B35" s="9"/>
       <c r="C35" s="73"/>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
       <c r="C36" s="109"/>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
       <c r="C37" s="109"/>
     </row>
-    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
       <c r="C38" s="109"/>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
       <c r="C39" s="109"/>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
       <c r="C40" s="109"/>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
       <c r="C41" s="109"/>
     </row>
-    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
       <c r="C42" s="109"/>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
       <c r="C43" s="109"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
       <c r="C44" s="109"/>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
       <c r="C45" s="109"/>
     </row>
-    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
       <c r="C46" s="110"/>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
       <c r="C47" s="110"/>
     </row>
-    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
       <c r="C48" s="110"/>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
       <c r="C49" s="110"/>
     </row>
-    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
       <c r="C50" s="109"/>
     </row>
-    <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="43" customHeight="1">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
       <c r="C51" s="109"/>
     </row>
-    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
       <c r="C52" s="109"/>
     </row>
-    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
       <c r="C53" s="109"/>
     </row>
-    <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="49" customHeight="1">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="109"/>
     </row>
-    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
       <c r="C55" s="109"/>
     </row>
-    <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="49" customHeight="1">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
       <c r="C56" s="109"/>
     </row>
-    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
       <c r="C57" s="109"/>
     </row>
-    <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="49" customHeight="1">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
       <c r="C58" s="109"/>
     </row>
-    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
       <c r="C59" s="109"/>
     </row>
-    <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="54" customHeight="1">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
       <c r="C60" s="110"/>
     </row>
-    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
       <c r="C61" s="110"/>
     </row>
-    <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="49" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="58"/>
       <c r="B63" s="9"/>
       <c r="C63" s="74"/>
     </row>
-    <row r="64" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="49" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="60"/>
       <c r="B65" s="9"/>
       <c r="C65" s="74"/>
     </row>
-    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="58"/>
       <c r="B66" s="9"/>
       <c r="C66" s="74"/>
@@ -6659,11 +6674,11 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:B38"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" style="61" customWidth="1"/>
     <col min="2" max="2" width="60.83203125" style="2"/>
@@ -6672,16 +6687,18 @@
     <col min="5" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="C1" s="71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -6690,7 +6707,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="40" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
@@ -6699,7 +6716,7 @@
       </c>
       <c r="C3" s="101"/>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -6708,7 +6725,7 @@
       </c>
       <c r="C4" s="102"/>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
@@ -6717,7 +6734,7 @@
       </c>
       <c r="C5" s="103"/>
     </row>
-    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -6726,7 +6743,7 @@
       </c>
       <c r="C6" s="104"/>
     </row>
-    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119">
       <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
@@ -6737,7 +6754,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -6746,7 +6763,7 @@
       </c>
       <c r="C8" s="106"/>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
@@ -6757,7 +6774,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -6766,7 +6783,7 @@
       </c>
       <c r="C10" s="106"/>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>107</v>
       </c>
@@ -6775,7 +6792,7 @@
       </c>
       <c r="C11" s="103"/>
     </row>
-    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
@@ -6784,7 +6801,7 @@
       </c>
       <c r="C12" s="104"/>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>9</v>
       </c>
@@ -6793,7 +6810,7 @@
       </c>
       <c r="C13" s="103"/>
     </row>
-    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -6802,7 +6819,7 @@
       </c>
       <c r="C14" s="104"/>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>10</v>
       </c>
@@ -6813,7 +6830,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -6822,7 +6839,7 @@
       </c>
       <c r="C16" s="106"/>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
@@ -6831,7 +6848,7 @@
       </c>
       <c r="C17" s="103"/>
     </row>
-    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="36" t="s">
         <v>36</v>
       </c>
@@ -6840,7 +6857,7 @@
       </c>
       <c r="C18" s="104"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="51">
       <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
@@ -6849,7 +6866,7 @@
       </c>
       <c r="C19" s="103"/>
     </row>
-    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -6858,7 +6875,7 @@
       </c>
       <c r="C20" s="104"/>
     </row>
-    <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="51" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>14</v>
       </c>
@@ -6867,7 +6884,7 @@
       </c>
       <c r="C21" s="105"/>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -6876,7 +6893,7 @@
       </c>
       <c r="C22" s="107"/>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>109</v>
       </c>
@@ -6887,7 +6904,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="36" t="s">
         <v>110</v>
       </c>
@@ -6896,7 +6913,7 @@
       </c>
       <c r="C24" s="108"/>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>111</v>
       </c>
@@ -6905,7 +6922,7 @@
       </c>
       <c r="C25" s="99"/>
     </row>
-    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>112</v>
       </c>
@@ -6914,7 +6931,7 @@
       </c>
       <c r="C26" s="100"/>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>113</v>
       </c>
@@ -6925,7 +6942,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>114</v>
       </c>
@@ -6934,7 +6951,7 @@
       </c>
       <c r="C28" s="106"/>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>115</v>
       </c>
@@ -6943,7 +6960,7 @@
       </c>
       <c r="C29" s="105"/>
     </row>
-    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>116</v>
       </c>
@@ -6952,180 +6969,180 @@
       </c>
       <c r="C30" s="106"/>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
       <c r="C31" s="109"/>
     </row>
-    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
       <c r="C32" s="109"/>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
       <c r="C33" s="110"/>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
       <c r="C34" s="110"/>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A35" s="54"/>
       <c r="B35" s="9"/>
       <c r="C35" s="73"/>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
       <c r="C36" s="109"/>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
       <c r="C37" s="109"/>
     </row>
-    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
       <c r="C38" s="109"/>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
       <c r="C39" s="109"/>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
       <c r="C40" s="109"/>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
       <c r="C41" s="109"/>
     </row>
-    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
       <c r="C42" s="109"/>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
       <c r="C43" s="109"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
       <c r="C44" s="109"/>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
       <c r="C45" s="109"/>
     </row>
-    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
       <c r="C46" s="110"/>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
       <c r="C47" s="110"/>
     </row>
-    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
       <c r="C48" s="110"/>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
       <c r="C49" s="110"/>
     </row>
-    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
       <c r="C50" s="109"/>
     </row>
-    <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="43" customHeight="1">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
       <c r="C51" s="109"/>
     </row>
-    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
       <c r="C52" s="109"/>
     </row>
-    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
       <c r="C53" s="109"/>
     </row>
-    <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="49" customHeight="1">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="109"/>
     </row>
-    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
       <c r="C55" s="109"/>
     </row>
-    <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="49" customHeight="1">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
       <c r="C56" s="109"/>
     </row>
-    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
       <c r="C57" s="109"/>
     </row>
-    <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="49" customHeight="1">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
       <c r="C58" s="109"/>
     </row>
-    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
       <c r="C59" s="109"/>
     </row>
-    <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="54" customHeight="1">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
       <c r="C60" s="110"/>
     </row>
-    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
       <c r="C61" s="110"/>
     </row>
-    <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="49" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="58"/>
       <c r="B63" s="9"/>
       <c r="C63" s="74"/>
     </row>
-    <row r="64" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="49" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="60"/>
       <c r="B65" s="9"/>
       <c r="C65" s="74"/>
     </row>
-    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="58"/>
       <c r="B66" s="9"/>
       <c r="C66" s="74"/>
@@ -7170,12 +7187,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDAB125-E83E-A94F-9305-E903F1FC3BB2}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="60.83203125" style="2"/>
@@ -7184,7 +7201,7 @@
     <col min="7" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -7207,7 +7224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -7221,7 +7238,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="40" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -7235,7 +7252,7 @@
       <c r="E3" s="87"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -7253,7 +7270,7 @@
       </c>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="40" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -7267,7 +7284,7 @@
       <c r="E5" s="88"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -7285,7 +7302,7 @@
       </c>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="40" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
@@ -7299,7 +7316,7 @@
       <c r="E7" s="89"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -7317,7 +7334,7 @@
       </c>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -7333,7 +7350,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -7351,7 +7368,7 @@
       </c>
       <c r="F10" s="96"/>
     </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="40" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
@@ -7367,7 +7384,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
@@ -7385,7 +7402,7 @@
       </c>
       <c r="F12" s="97"/>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
@@ -7401,7 +7418,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -7419,7 +7436,7 @@
       </c>
       <c r="F14" s="96"/>
     </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
@@ -7433,7 +7450,7 @@
       <c r="E15" s="89"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -7451,7 +7468,7 @@
       </c>
       <c r="F16" s="96"/>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -7465,7 +7482,7 @@
       <c r="E17" s="89"/>
       <c r="F17" s="98"/>
     </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -7483,7 +7500,7 @@
       </c>
       <c r="F18" s="98"/>
     </row>
-    <row r="19" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="51" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -7497,7 +7514,7 @@
       <c r="E19" s="89"/>
       <c r="F19" s="96"/>
     </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -7515,7 +7532,7 @@
       </c>
       <c r="F20" s="96"/>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
@@ -7531,7 +7548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -7549,7 +7566,7 @@
       </c>
       <c r="F22" s="96"/>
     </row>
-    <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="40" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
@@ -7563,7 +7580,7 @@
       <c r="E23" s="90"/>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="35" t="s">
         <v>45</v>
       </c>
@@ -7581,7 +7598,7 @@
       </c>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
@@ -7595,7 +7612,7 @@
       <c r="E25" s="90"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="35" t="s">
         <v>46</v>
       </c>
@@ -7613,7 +7630,7 @@
       </c>
       <c r="F26" s="44"/>
     </row>
-    <row r="27" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="40" customHeight="1">
       <c r="A27" s="38" t="s">
         <v>31</v>
       </c>
@@ -7627,7 +7644,7 @@
       <c r="E27" s="89"/>
       <c r="F27" s="42"/>
     </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>47</v>
       </c>
@@ -7645,7 +7662,7 @@
       </c>
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="38" t="s">
         <v>32</v>
       </c>
@@ -7659,7 +7676,7 @@
       <c r="E29" s="89"/>
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>48</v>
       </c>
@@ -7677,7 +7694,7 @@
       </c>
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="40" customHeight="1">
       <c r="A31" s="38" t="s">
         <v>33</v>
       </c>
@@ -7691,7 +7708,7 @@
       <c r="E31" s="89"/>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A32" s="35" t="s">
         <v>49</v>
       </c>
@@ -7709,7 +7726,7 @@
       </c>
       <c r="F32" s="42"/>
     </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="51">
       <c r="A33" s="38" t="s">
         <v>78</v>
       </c>
@@ -7723,7 +7740,7 @@
       <c r="E33" s="89"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="36" t="s">
         <v>79</v>
       </c>
@@ -7741,7 +7758,7 @@
       </c>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="49" customHeight="1">
       <c r="A35" s="47" t="s">
         <v>50</v>
       </c>
@@ -7757,7 +7774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -7775,7 +7792,7 @@
       </c>
       <c r="F36" s="96"/>
     </row>
-    <row r="37" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="48" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>53</v>
       </c>
@@ -7791,7 +7808,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
@@ -7809,7 +7826,7 @@
       </c>
       <c r="F38" s="96"/>
     </row>
-    <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="40" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>55</v>
       </c>
@@ -7823,17 +7840,21 @@
       <c r="E39" s="88"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A40" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="30">
+        <v>0</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0</v>
+      </c>
       <c r="D40" s="83"/>
       <c r="E40" s="88"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="40" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>57</v>
       </c>
@@ -7849,7 +7870,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A42" s="48" t="s">
         <v>58</v>
       </c>
@@ -7867,7 +7888,7 @@
       </c>
       <c r="F42" s="96"/>
     </row>
-    <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="40" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>74</v>
       </c>
@@ -7881,7 +7902,7 @@
       <c r="E43" s="88"/>
       <c r="F43" s="96"/>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A44" s="48" t="s">
         <v>59</v>
       </c>
@@ -7891,7 +7912,7 @@
       <c r="E44" s="88"/>
       <c r="F44" s="96"/>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="50" t="s">
         <v>92</v>
       </c>
@@ -7907,7 +7928,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A46" s="53" t="s">
         <v>93</v>
       </c>
@@ -7925,7 +7946,7 @@
       </c>
       <c r="F46" s="96"/>
     </row>
-    <row r="47" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="49" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>51</v>
       </c>
@@ -7939,7 +7960,7 @@
       <c r="E47" s="88"/>
       <c r="F47" s="42"/>
     </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>60</v>
       </c>
@@ -7957,7 +7978,7 @@
       </c>
       <c r="F48" s="42"/>
     </row>
-    <row r="49" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="49" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>61</v>
       </c>
@@ -7971,7 +7992,7 @@
       <c r="E49" s="88"/>
       <c r="F49" s="42"/>
     </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A50" s="52" t="s">
         <v>62</v>
       </c>
@@ -7989,7 +8010,7 @@
       </c>
       <c r="F50" s="42"/>
     </row>
-    <row r="51" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="49" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>63</v>
       </c>
@@ -8003,7 +8024,7 @@
       <c r="E51" s="88"/>
       <c r="F51" s="42"/>
     </row>
-    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A52" s="52" t="s">
         <v>64</v>
       </c>
@@ -8021,7 +8042,7 @@
       </c>
       <c r="F52" s="42"/>
     </row>
-    <row r="53" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="54" customHeight="1">
       <c r="A53" s="51" t="s">
         <v>65</v>
       </c>
@@ -8037,7 +8058,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A54" s="52" t="s">
         <v>66</v>
       </c>
@@ -8055,7 +8076,7 @@
       </c>
       <c r="F54" s="42"/>
     </row>
-    <row r="55" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="49" customHeight="1">
       <c r="A55" s="51" t="s">
         <v>67</v>
       </c>
@@ -8069,7 +8090,7 @@
       <c r="E55" s="88"/>
       <c r="F55" s="42"/>
     </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A56" s="52" t="s">
         <v>68</v>
       </c>
@@ -8087,7 +8108,7 @@
       </c>
       <c r="F56" s="42"/>
     </row>
-    <row r="57" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="49" customHeight="1">
       <c r="A57" s="51" t="s">
         <v>87</v>
       </c>
@@ -8101,7 +8122,7 @@
       <c r="E57" s="88"/>
       <c r="F57" s="96"/>
     </row>
-    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A58" s="52" t="s">
         <v>88</v>
       </c>
@@ -8119,27 +8140,27 @@
       </c>
       <c r="F58" s="96"/>
     </row>
-    <row r="60" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="40" customHeight="1">
       <c r="A60" s="54"/>
     </row>
-    <row r="61" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="40" customHeight="1">
       <c r="A61" s="54"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="40" customHeight="1">
       <c r="A62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="40" customHeight="1">
       <c r="A63" s="54"/>
     </row>
-    <row r="64" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="40" customHeight="1">
       <c r="A64" s="54"/>
     </row>
-    <row r="65" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="40" customHeight="1">
       <c r="A65" s="54"/>
     </row>
-    <row r="66" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="40" customHeight="1">
       <c r="A66" s="54"/>
     </row>
   </sheetData>
@@ -8167,12 +8188,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9633FD46-57C4-824B-9259-781D6348CF9A}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="60.83203125" style="2"/>
@@ -8181,7 +8202,7 @@
     <col min="7" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -8204,7 +8225,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -8218,7 +8239,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="40" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -8232,7 +8253,7 @@
       <c r="E3" s="87"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -8250,7 +8271,7 @@
       </c>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="40" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -8264,7 +8285,7 @@
       <c r="E5" s="88"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -8282,7 +8303,7 @@
       </c>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="40" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
@@ -8296,7 +8317,7 @@
       <c r="E7" s="89"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -8314,7 +8335,7 @@
       </c>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -8330,7 +8351,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -8348,7 +8369,7 @@
       </c>
       <c r="F10" s="96"/>
     </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="40" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
@@ -8364,7 +8385,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
@@ -8382,7 +8403,7 @@
       </c>
       <c r="F12" s="97"/>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
@@ -8398,7 +8419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -8416,7 +8437,7 @@
       </c>
       <c r="F14" s="96"/>
     </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
@@ -8430,7 +8451,7 @@
       <c r="E15" s="89"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -8448,7 +8469,7 @@
       </c>
       <c r="F16" s="96"/>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -8462,7 +8483,7 @@
       <c r="E17" s="89"/>
       <c r="F17" s="98"/>
     </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -8480,7 +8501,7 @@
       </c>
       <c r="F18" s="98"/>
     </row>
-    <row r="19" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="51" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -8494,7 +8515,7 @@
       <c r="E19" s="89"/>
       <c r="F19" s="96"/>
     </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -8512,7 +8533,7 @@
       </c>
       <c r="F20" s="96"/>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
@@ -8528,7 +8549,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -8546,7 +8567,7 @@
       </c>
       <c r="F22" s="96"/>
     </row>
-    <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="40" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
@@ -8560,7 +8581,7 @@
       <c r="E23" s="90"/>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="35" t="s">
         <v>45</v>
       </c>
@@ -8578,7 +8599,7 @@
       </c>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
@@ -8592,7 +8613,7 @@
       <c r="E25" s="90"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="35" t="s">
         <v>46</v>
       </c>
@@ -8610,7 +8631,7 @@
       </c>
       <c r="F26" s="44"/>
     </row>
-    <row r="27" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="40" customHeight="1">
       <c r="A27" s="38" t="s">
         <v>31</v>
       </c>
@@ -8624,7 +8645,7 @@
       <c r="E27" s="89"/>
       <c r="F27" s="42"/>
     </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>47</v>
       </c>
@@ -8642,7 +8663,7 @@
       </c>
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="38" t="s">
         <v>32</v>
       </c>
@@ -8656,7 +8677,7 @@
       <c r="E29" s="89"/>
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>48</v>
       </c>
@@ -8674,7 +8695,7 @@
       </c>
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="40" customHeight="1">
       <c r="A31" s="38" t="s">
         <v>33</v>
       </c>
@@ -8688,7 +8709,7 @@
       <c r="E31" s="89"/>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A32" s="35" t="s">
         <v>49</v>
       </c>
@@ -8706,7 +8727,7 @@
       </c>
       <c r="F32" s="42"/>
     </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="51">
       <c r="A33" s="38" t="s">
         <v>78</v>
       </c>
@@ -8720,7 +8741,7 @@
       <c r="E33" s="89"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="36" t="s">
         <v>79</v>
       </c>
@@ -8738,7 +8759,7 @@
       </c>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="49" customHeight="1">
       <c r="A35" s="47" t="s">
         <v>50</v>
       </c>
@@ -8754,7 +8775,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -8772,7 +8793,7 @@
       </c>
       <c r="F36" s="96"/>
     </row>
-    <row r="37" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="48" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>53</v>
       </c>
@@ -8788,7 +8809,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
@@ -8806,7 +8827,7 @@
       </c>
       <c r="F38" s="96"/>
     </row>
-    <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="40" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>55</v>
       </c>
@@ -8820,17 +8841,21 @@
       <c r="E39" s="88"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A40" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="30">
+        <v>0</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0</v>
+      </c>
       <c r="D40" s="83"/>
       <c r="E40" s="88"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="40" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>57</v>
       </c>
@@ -8846,7 +8871,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A42" s="48" t="s">
         <v>58</v>
       </c>
@@ -8864,7 +8889,7 @@
       </c>
       <c r="F42" s="96"/>
     </row>
-    <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="40" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>74</v>
       </c>
@@ -8878,17 +8903,21 @@
       <c r="E43" s="88"/>
       <c r="F43" s="96"/>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A44" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
+      <c r="B44" s="30">
+        <v>0</v>
+      </c>
+      <c r="C44" s="31">
+        <v>0</v>
+      </c>
       <c r="D44" s="83"/>
       <c r="E44" s="88"/>
       <c r="F44" s="96"/>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="50" t="s">
         <v>92</v>
       </c>
@@ -8904,7 +8933,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A46" s="53" t="s">
         <v>93</v>
       </c>
@@ -8922,7 +8951,7 @@
       </c>
       <c r="F46" s="96"/>
     </row>
-    <row r="47" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="49" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>51</v>
       </c>
@@ -8936,7 +8965,7 @@
       <c r="E47" s="88"/>
       <c r="F47" s="42"/>
     </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>60</v>
       </c>
@@ -8954,7 +8983,7 @@
       </c>
       <c r="F48" s="42"/>
     </row>
-    <row r="49" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="49" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>61</v>
       </c>
@@ -8968,7 +8997,7 @@
       <c r="E49" s="88"/>
       <c r="F49" s="42"/>
     </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A50" s="52" t="s">
         <v>62</v>
       </c>
@@ -8986,7 +9015,7 @@
       </c>
       <c r="F50" s="42"/>
     </row>
-    <row r="51" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="49" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>63</v>
       </c>
@@ -9000,7 +9029,7 @@
       <c r="E51" s="88"/>
       <c r="F51" s="42"/>
     </row>
-    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A52" s="52" t="s">
         <v>64</v>
       </c>
@@ -9018,7 +9047,7 @@
       </c>
       <c r="F52" s="42"/>
     </row>
-    <row r="53" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="54" customHeight="1">
       <c r="A53" s="51" t="s">
         <v>65</v>
       </c>
@@ -9034,7 +9063,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A54" s="52" t="s">
         <v>66</v>
       </c>
@@ -9052,7 +9081,7 @@
       </c>
       <c r="F54" s="42"/>
     </row>
-    <row r="55" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="49" customHeight="1">
       <c r="A55" s="51" t="s">
         <v>67</v>
       </c>
@@ -9066,7 +9095,7 @@
       <c r="E55" s="88"/>
       <c r="F55" s="42"/>
     </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A56" s="52" t="s">
         <v>68</v>
       </c>
@@ -9084,7 +9113,7 @@
       </c>
       <c r="F56" s="42"/>
     </row>
-    <row r="57" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="49" customHeight="1">
       <c r="A57" s="51" t="s">
         <v>87</v>
       </c>
@@ -9098,7 +9127,7 @@
       <c r="E57" s="88"/>
       <c r="F57" s="96"/>
     </row>
-    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A58" s="52" t="s">
         <v>88</v>
       </c>
@@ -9116,27 +9145,27 @@
       </c>
       <c r="F58" s="96"/>
     </row>
-    <row r="60" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="40" customHeight="1">
       <c r="A60" s="54"/>
     </row>
-    <row r="61" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="40" customHeight="1">
       <c r="A61" s="54"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="40" customHeight="1">
       <c r="A62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="40" customHeight="1">
       <c r="A63" s="54"/>
     </row>
-    <row r="64" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="40" customHeight="1">
       <c r="A64" s="54"/>
     </row>
-    <row r="65" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="40" customHeight="1">
       <c r="A65" s="54"/>
     </row>
-    <row r="66" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="40" customHeight="1">
       <c r="A66" s="54"/>
     </row>
   </sheetData>
@@ -9169,7 +9198,7 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="60.83203125" style="2"/>
@@ -9178,7 +9207,7 @@
     <col min="7" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -9201,7 +9230,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -9215,7 +9244,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="40" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -9229,7 +9258,7 @@
       <c r="E3" s="87"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -9247,7 +9276,7 @@
       </c>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="40" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -9261,7 +9290,7 @@
       <c r="E5" s="88"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -9275,7 +9304,7 @@
       <c r="E6" s="88"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="40" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
@@ -9289,7 +9318,7 @@
       <c r="E7" s="89"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -9307,7 +9336,7 @@
       </c>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -9323,7 +9352,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -9341,7 +9370,7 @@
       </c>
       <c r="F10" s="96"/>
     </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="40" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
@@ -9357,7 +9386,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
@@ -9375,7 +9404,7 @@
       </c>
       <c r="F12" s="97"/>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
@@ -9391,7 +9420,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -9405,7 +9434,7 @@
       <c r="E14" s="89"/>
       <c r="F14" s="96"/>
     </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
@@ -9419,7 +9448,7 @@
       <c r="E15" s="89"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -9437,7 +9466,7 @@
       </c>
       <c r="F16" s="96"/>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -9451,7 +9480,7 @@
       <c r="E17" s="89"/>
       <c r="F17" s="98"/>
     </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -9469,7 +9498,7 @@
       </c>
       <c r="F18" s="98"/>
     </row>
-    <row r="19" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="51" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -9483,7 +9512,7 @@
       <c r="E19" s="89"/>
       <c r="F19" s="96"/>
     </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -9501,7 +9530,7 @@
       </c>
       <c r="F20" s="96"/>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
@@ -9517,7 +9546,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -9531,7 +9560,7 @@
       <c r="E22" s="89"/>
       <c r="F22" s="96"/>
     </row>
-    <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="40" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
@@ -9545,7 +9574,7 @@
       <c r="E23" s="90"/>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="35" t="s">
         <v>45</v>
       </c>
@@ -9563,7 +9592,7 @@
       </c>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
@@ -9577,7 +9606,7 @@
       <c r="E25" s="90"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="35" t="s">
         <v>46</v>
       </c>
@@ -9595,7 +9624,7 @@
       </c>
       <c r="F26" s="44"/>
     </row>
-    <row r="27" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="40" customHeight="1">
       <c r="A27" s="38" t="s">
         <v>31</v>
       </c>
@@ -9609,7 +9638,7 @@
       <c r="E27" s="89"/>
       <c r="F27" s="42"/>
     </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>47</v>
       </c>
@@ -9627,7 +9656,7 @@
       </c>
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="38" t="s">
         <v>32</v>
       </c>
@@ -9641,7 +9670,7 @@
       <c r="E29" s="89"/>
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>48</v>
       </c>
@@ -9659,7 +9688,7 @@
       </c>
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="40" customHeight="1">
       <c r="A31" s="38" t="s">
         <v>33</v>
       </c>
@@ -9673,7 +9702,7 @@
       <c r="E31" s="89"/>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A32" s="35" t="s">
         <v>49</v>
       </c>
@@ -9691,7 +9720,7 @@
       </c>
       <c r="F32" s="42"/>
     </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="51">
       <c r="A33" s="38" t="s">
         <v>78</v>
       </c>
@@ -9705,7 +9734,7 @@
       <c r="E33" s="89"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="36" t="s">
         <v>79</v>
       </c>
@@ -9723,7 +9752,7 @@
       </c>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="49" customHeight="1">
       <c r="A35" s="47" t="s">
         <v>50</v>
       </c>
@@ -9739,7 +9768,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -9749,7 +9778,7 @@
       <c r="E36" s="88"/>
       <c r="F36" s="96"/>
     </row>
-    <row r="37" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="48" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>53</v>
       </c>
@@ -9765,7 +9794,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
@@ -9775,7 +9804,7 @@
       <c r="E38" s="88"/>
       <c r="F38" s="96"/>
     </row>
-    <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="40" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>55</v>
       </c>
@@ -9789,7 +9818,7 @@
       <c r="E39" s="88"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A40" s="48" t="s">
         <v>56</v>
       </c>
@@ -9799,7 +9828,7 @@
       <c r="E40" s="88"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="40" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>57</v>
       </c>
@@ -9815,7 +9844,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A42" s="48" t="s">
         <v>58</v>
       </c>
@@ -9833,7 +9862,7 @@
       </c>
       <c r="F42" s="96"/>
     </row>
-    <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="40" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>74</v>
       </c>
@@ -9847,7 +9876,7 @@
       <c r="E43" s="88"/>
       <c r="F43" s="96"/>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A44" s="48" t="s">
         <v>59</v>
       </c>
@@ -9857,7 +9886,7 @@
       <c r="E44" s="88"/>
       <c r="F44" s="96"/>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="50" t="s">
         <v>92</v>
       </c>
@@ -9873,7 +9902,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A46" s="53" t="s">
         <v>93</v>
       </c>
@@ -9883,7 +9912,7 @@
       <c r="E46" s="88"/>
       <c r="F46" s="96"/>
     </row>
-    <row r="47" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="49" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>51</v>
       </c>
@@ -9897,7 +9926,7 @@
       <c r="E47" s="88"/>
       <c r="F47" s="42"/>
     </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>60</v>
       </c>
@@ -9911,7 +9940,7 @@
       <c r="E48" s="88"/>
       <c r="F48" s="42"/>
     </row>
-    <row r="49" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="49" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>61</v>
       </c>
@@ -9925,7 +9954,7 @@
       <c r="E49" s="88"/>
       <c r="F49" s="42"/>
     </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A50" s="52" t="s">
         <v>62</v>
       </c>
@@ -9935,7 +9964,7 @@
       <c r="E50" s="88"/>
       <c r="F50" s="42"/>
     </row>
-    <row r="51" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="49" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>63</v>
       </c>
@@ -9949,7 +9978,7 @@
       <c r="E51" s="88"/>
       <c r="F51" s="42"/>
     </row>
-    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A52" s="52" t="s">
         <v>64</v>
       </c>
@@ -9959,7 +9988,7 @@
       <c r="E52" s="88"/>
       <c r="F52" s="42"/>
     </row>
-    <row r="53" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="54" customHeight="1">
       <c r="A53" s="51" t="s">
         <v>65</v>
       </c>
@@ -9975,7 +10004,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A54" s="52" t="s">
         <v>66</v>
       </c>
@@ -9985,7 +10014,7 @@
       <c r="E54" s="88"/>
       <c r="F54" s="42"/>
     </row>
-    <row r="55" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="49" customHeight="1">
       <c r="A55" s="51" t="s">
         <v>67</v>
       </c>
@@ -9999,7 +10028,7 @@
       <c r="E55" s="88"/>
       <c r="F55" s="42"/>
     </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A56" s="52" t="s">
         <v>68</v>
       </c>
@@ -10009,7 +10038,7 @@
       <c r="E56" s="88"/>
       <c r="F56" s="42"/>
     </row>
-    <row r="57" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="49" customHeight="1">
       <c r="A57" s="51" t="s">
         <v>87</v>
       </c>
@@ -10023,7 +10052,7 @@
       <c r="E57" s="88"/>
       <c r="F57" s="96"/>
     </row>
-    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A58" s="52" t="s">
         <v>88</v>
       </c>
@@ -10041,27 +10070,27 @@
       </c>
       <c r="F58" s="96"/>
     </row>
-    <row r="60" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="40" customHeight="1">
       <c r="A60" s="54"/>
     </row>
-    <row r="61" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="40" customHeight="1">
       <c r="A61" s="54"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="40" customHeight="1">
       <c r="A62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="40" customHeight="1">
       <c r="A63" s="54"/>
     </row>
-    <row r="64" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="40" customHeight="1">
       <c r="A64" s="54"/>
     </row>
-    <row r="65" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="40" customHeight="1">
       <c r="A65" s="54"/>
     </row>
-    <row r="66" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="40" customHeight="1">
       <c r="A66" s="54"/>
     </row>
   </sheetData>
@@ -10094,7 +10123,7 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="60.83203125" style="2"/>
@@ -10104,7 +10133,7 @@
     <col min="7" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -10127,7 +10156,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -10141,7 +10170,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="40" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -10155,7 +10184,7 @@
       <c r="E3" s="91"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -10173,7 +10202,7 @@
       </c>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="40" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -10187,7 +10216,7 @@
       <c r="E5" s="88"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -10201,7 +10230,7 @@
       <c r="E6" s="88"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="40" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
@@ -10215,7 +10244,7 @@
       <c r="E7" s="92"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -10233,7 +10262,7 @@
       </c>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -10249,7 +10278,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -10267,7 +10296,7 @@
       </c>
       <c r="F10" s="96"/>
     </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="40" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
@@ -10283,7 +10312,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
@@ -10301,7 +10330,7 @@
       </c>
       <c r="F12" s="97"/>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
@@ -10317,7 +10346,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -10331,7 +10360,7 @@
       <c r="E14" s="89"/>
       <c r="F14" s="96"/>
     </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
@@ -10345,7 +10374,7 @@
       <c r="E15" s="89"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -10363,7 +10392,7 @@
       </c>
       <c r="F16" s="96"/>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -10377,7 +10406,7 @@
       <c r="E17" s="89"/>
       <c r="F17" s="98"/>
     </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -10395,7 +10424,7 @@
       </c>
       <c r="F18" s="98"/>
     </row>
-    <row r="19" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="51" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -10409,7 +10438,7 @@
       <c r="E19" s="89"/>
       <c r="F19" s="96"/>
     </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -10427,7 +10456,7 @@
       </c>
       <c r="F20" s="96"/>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
@@ -10443,7 +10472,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -10461,7 +10490,7 @@
       </c>
       <c r="F22" s="96"/>
     </row>
-    <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="40" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
@@ -10475,7 +10504,7 @@
       <c r="E23" s="77"/>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="35" t="s">
         <v>45</v>
       </c>
@@ -10493,7 +10522,7 @@
       </c>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
@@ -10507,7 +10536,7 @@
       <c r="E25" s="77"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="35" t="s">
         <v>46</v>
       </c>
@@ -10525,7 +10554,7 @@
       </c>
       <c r="F26" s="44"/>
     </row>
-    <row r="27" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="40" customHeight="1">
       <c r="A27" s="38" t="s">
         <v>31</v>
       </c>
@@ -10539,7 +10568,7 @@
       <c r="E27" s="92"/>
       <c r="F27" s="42"/>
     </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>47</v>
       </c>
@@ -10557,7 +10586,7 @@
       </c>
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="38" t="s">
         <v>32</v>
       </c>
@@ -10571,7 +10600,7 @@
       <c r="E29" s="92"/>
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>48</v>
       </c>
@@ -10589,7 +10618,7 @@
       </c>
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="40" customHeight="1">
       <c r="A31" s="38" t="s">
         <v>33</v>
       </c>
@@ -10603,7 +10632,7 @@
       <c r="E31" s="92"/>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A32" s="35" t="s">
         <v>49</v>
       </c>
@@ -10621,7 +10650,7 @@
       </c>
       <c r="F32" s="42"/>
     </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="51">
       <c r="A33" s="38" t="s">
         <v>78</v>
       </c>
@@ -10635,7 +10664,7 @@
       <c r="E33" s="89"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="36" t="s">
         <v>79</v>
       </c>
@@ -10653,7 +10682,7 @@
       </c>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="49" customHeight="1">
       <c r="A35" s="47" t="s">
         <v>50</v>
       </c>
@@ -10669,7 +10698,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -10679,7 +10708,7 @@
       <c r="E36" s="93"/>
       <c r="F36" s="96"/>
     </row>
-    <row r="37" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="48" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>53</v>
       </c>
@@ -10695,7 +10724,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
@@ -10705,7 +10734,7 @@
       <c r="E38" s="93"/>
       <c r="F38" s="96"/>
     </row>
-    <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="40" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>55</v>
       </c>
@@ -10719,7 +10748,7 @@
       <c r="E39" s="93"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A40" s="48" t="s">
         <v>56</v>
       </c>
@@ -10729,7 +10758,7 @@
       <c r="E40" s="93"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="40" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>57</v>
       </c>
@@ -10745,7 +10774,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A42" s="48" t="s">
         <v>58</v>
       </c>
@@ -10755,7 +10784,7 @@
       <c r="E42" s="86"/>
       <c r="F42" s="96"/>
     </row>
-    <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="40" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>74</v>
       </c>
@@ -10769,7 +10798,7 @@
       <c r="E43" s="93"/>
       <c r="F43" s="96"/>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A44" s="48" t="s">
         <v>59</v>
       </c>
@@ -10779,7 +10808,7 @@
       <c r="E44" s="93"/>
       <c r="F44" s="96"/>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="50" t="s">
         <v>92</v>
       </c>
@@ -10795,7 +10824,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A46" s="53" t="s">
         <v>93</v>
       </c>
@@ -10805,7 +10834,7 @@
       <c r="E46" s="88"/>
       <c r="F46" s="96"/>
     </row>
-    <row r="47" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="49" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>51</v>
       </c>
@@ -10819,7 +10848,7 @@
       <c r="E47" s="93"/>
       <c r="F47" s="42"/>
     </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>60</v>
       </c>
@@ -10833,7 +10862,7 @@
       <c r="E48" s="93"/>
       <c r="F48" s="42"/>
     </row>
-    <row r="49" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="49" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>61</v>
       </c>
@@ -10847,7 +10876,7 @@
       <c r="E49" s="93"/>
       <c r="F49" s="42"/>
     </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A50" s="52" t="s">
         <v>62</v>
       </c>
@@ -10857,7 +10886,7 @@
       <c r="E50" s="93"/>
       <c r="F50" s="42"/>
     </row>
-    <row r="51" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="49" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>63</v>
       </c>
@@ -10871,7 +10900,7 @@
       <c r="E51" s="93"/>
       <c r="F51" s="42"/>
     </row>
-    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A52" s="52" t="s">
         <v>64</v>
       </c>
@@ -10881,7 +10910,7 @@
       <c r="E52" s="93"/>
       <c r="F52" s="42"/>
     </row>
-    <row r="53" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="54" customHeight="1">
       <c r="A53" s="51" t="s">
         <v>65</v>
       </c>
@@ -10895,7 +10924,7 @@
       <c r="E53" s="93"/>
       <c r="F53" s="42"/>
     </row>
-    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A54" s="52" t="s">
         <v>66</v>
       </c>
@@ -10913,7 +10942,7 @@
       </c>
       <c r="F54" s="42"/>
     </row>
-    <row r="55" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="49" customHeight="1">
       <c r="A55" s="51" t="s">
         <v>67</v>
       </c>
@@ -10927,7 +10956,7 @@
       <c r="E55" s="93"/>
       <c r="F55" s="42"/>
     </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A56" s="52" t="s">
         <v>68</v>
       </c>
@@ -10937,7 +10966,7 @@
       <c r="E56" s="93"/>
       <c r="F56" s="42"/>
     </row>
-    <row r="57" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="49" customHeight="1">
       <c r="A57" s="51" t="s">
         <v>87</v>
       </c>
@@ -10951,7 +10980,7 @@
       <c r="E57" s="88"/>
       <c r="F57" s="96"/>
     </row>
-    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A58" s="52" t="s">
         <v>88</v>
       </c>
@@ -10969,27 +10998,27 @@
       </c>
       <c r="F58" s="96"/>
     </row>
-    <row r="60" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="40" customHeight="1">
       <c r="A60" s="54"/>
     </row>
-    <row r="61" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="40" customHeight="1">
       <c r="A61" s="54"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="40" customHeight="1">
       <c r="A62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="40" customHeight="1">
       <c r="A63" s="54"/>
     </row>
-    <row r="64" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="40" customHeight="1">
       <c r="A64" s="54"/>
     </row>
-    <row r="65" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="40" customHeight="1">
       <c r="A65" s="54"/>
     </row>
-    <row r="66" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="40" customHeight="1">
       <c r="A66" s="54"/>
     </row>
   </sheetData>
@@ -11022,7 +11051,7 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="60.83203125" style="2"/>
@@ -11031,7 +11060,7 @@
     <col min="7" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -11052,7 +11081,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -11066,7 +11095,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="40" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -11080,7 +11109,7 @@
       <c r="E3" s="87"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -11098,7 +11127,7 @@
       </c>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="40" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -11112,7 +11141,7 @@
       <c r="E5" s="88"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -11126,7 +11155,7 @@
       <c r="E6" s="88"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="40" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
@@ -11140,7 +11169,7 @@
       <c r="E7" s="89"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -11158,7 +11187,7 @@
       </c>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -11174,7 +11203,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -11192,7 +11221,7 @@
       </c>
       <c r="F10" s="96"/>
     </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="40" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
@@ -11208,7 +11237,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
@@ -11226,7 +11255,7 @@
       </c>
       <c r="F12" s="97"/>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
@@ -11242,7 +11271,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -11256,7 +11285,7 @@
       <c r="E14" s="89"/>
       <c r="F14" s="96"/>
     </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
@@ -11270,7 +11299,7 @@
       <c r="E15" s="89"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -11288,7 +11317,7 @@
       </c>
       <c r="F16" s="96"/>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -11302,7 +11331,7 @@
       <c r="E17" s="89"/>
       <c r="F17" s="98"/>
     </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -11320,7 +11349,7 @@
       </c>
       <c r="F18" s="98"/>
     </row>
-    <row r="19" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="51" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -11334,7 +11363,7 @@
       <c r="E19" s="89"/>
       <c r="F19" s="96"/>
     </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -11352,7 +11381,7 @@
       </c>
       <c r="F20" s="96"/>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
@@ -11368,7 +11397,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -11382,7 +11411,7 @@
       <c r="E22" s="89"/>
       <c r="F22" s="96"/>
     </row>
-    <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="40" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
@@ -11396,7 +11425,7 @@
       <c r="E23" s="90"/>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="35" t="s">
         <v>45</v>
       </c>
@@ -11414,7 +11443,7 @@
       </c>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
@@ -11428,7 +11457,7 @@
       <c r="E25" s="90"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="35" t="s">
         <v>46</v>
       </c>
@@ -11442,7 +11471,7 @@
       <c r="E26" s="90"/>
       <c r="F26" s="44"/>
     </row>
-    <row r="27" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="40" customHeight="1">
       <c r="A27" s="38" t="s">
         <v>31</v>
       </c>
@@ -11456,7 +11485,7 @@
       <c r="E27" s="89"/>
       <c r="F27" s="42"/>
     </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>47</v>
       </c>
@@ -11474,7 +11503,7 @@
       </c>
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="38" t="s">
         <v>32</v>
       </c>
@@ -11488,7 +11517,7 @@
       <c r="E29" s="89"/>
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>48</v>
       </c>
@@ -11506,7 +11535,7 @@
       </c>
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="40" customHeight="1">
       <c r="A31" s="38" t="s">
         <v>33</v>
       </c>
@@ -11520,7 +11549,7 @@
       <c r="E31" s="89"/>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A32" s="35" t="s">
         <v>49</v>
       </c>
@@ -11538,7 +11567,7 @@
       </c>
       <c r="F32" s="42"/>
     </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="51">
       <c r="A33" s="38" t="s">
         <v>78</v>
       </c>
@@ -11552,7 +11581,7 @@
       <c r="E33" s="89"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="36" t="s">
         <v>79</v>
       </c>
@@ -11570,7 +11599,7 @@
       </c>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="49" customHeight="1">
       <c r="A35" s="47" t="s">
         <v>50</v>
       </c>
@@ -11586,7 +11615,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -11596,7 +11625,7 @@
       <c r="E36" s="88"/>
       <c r="F36" s="96"/>
     </row>
-    <row r="37" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="48" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>53</v>
       </c>
@@ -11612,7 +11641,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
@@ -11622,7 +11651,7 @@
       <c r="E38" s="88"/>
       <c r="F38" s="96"/>
     </row>
-    <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="40" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>55</v>
       </c>
@@ -11636,7 +11665,7 @@
       <c r="E39" s="88"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A40" s="48" t="s">
         <v>56</v>
       </c>
@@ -11646,7 +11675,7 @@
       <c r="E40" s="88"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="40" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>57</v>
       </c>
@@ -11662,7 +11691,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A42" s="48" t="s">
         <v>58</v>
       </c>
@@ -11680,7 +11709,7 @@
       </c>
       <c r="F42" s="96"/>
     </row>
-    <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="40" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>74</v>
       </c>
@@ -11694,7 +11723,7 @@
       <c r="E43" s="88"/>
       <c r="F43" s="96"/>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A44" s="48" t="s">
         <v>59</v>
       </c>
@@ -11704,7 +11733,7 @@
       <c r="E44" s="88"/>
       <c r="F44" s="96"/>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="50" t="s">
         <v>92</v>
       </c>
@@ -11720,7 +11749,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A46" s="53" t="s">
         <v>93</v>
       </c>
@@ -11738,7 +11767,7 @@
       </c>
       <c r="F46" s="96"/>
     </row>
-    <row r="47" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="49" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>51</v>
       </c>
@@ -11752,7 +11781,7 @@
       <c r="E47" s="88"/>
       <c r="F47" s="42"/>
     </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>60</v>
       </c>
@@ -11770,7 +11799,7 @@
       </c>
       <c r="F48" s="42"/>
     </row>
-    <row r="49" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="49" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>61</v>
       </c>
@@ -11784,7 +11813,7 @@
       <c r="E49" s="88"/>
       <c r="F49" s="42"/>
     </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A50" s="52" t="s">
         <v>62</v>
       </c>
@@ -11802,7 +11831,7 @@
       </c>
       <c r="F50" s="42"/>
     </row>
-    <row r="51" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="49" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>63</v>
       </c>
@@ -11816,7 +11845,7 @@
       <c r="E51" s="88"/>
       <c r="F51" s="42"/>
     </row>
-    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A52" s="52" t="s">
         <v>64</v>
       </c>
@@ -11834,7 +11863,7 @@
       </c>
       <c r="F52" s="42"/>
     </row>
-    <row r="53" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="54" customHeight="1">
       <c r="A53" s="51" t="s">
         <v>65</v>
       </c>
@@ -11850,7 +11879,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A54" s="52" t="s">
         <v>66</v>
       </c>
@@ -11868,7 +11897,7 @@
       </c>
       <c r="F54" s="42"/>
     </row>
-    <row r="55" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="49" customHeight="1">
       <c r="A55" s="51" t="s">
         <v>67</v>
       </c>
@@ -11882,7 +11911,7 @@
       <c r="E55" s="88"/>
       <c r="F55" s="42"/>
     </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A56" s="52" t="s">
         <v>68</v>
       </c>
@@ -11900,7 +11929,7 @@
       </c>
       <c r="F56" s="42"/>
     </row>
-    <row r="57" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="49" customHeight="1">
       <c r="A57" s="51" t="s">
         <v>87</v>
       </c>
@@ -11914,7 +11943,7 @@
       <c r="E57" s="88"/>
       <c r="F57" s="96"/>
     </row>
-    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A58" s="52" t="s">
         <v>88</v>
       </c>
@@ -11932,27 +11961,27 @@
       </c>
       <c r="F58" s="96"/>
     </row>
-    <row r="60" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="40" customHeight="1">
       <c r="A60" s="54"/>
     </row>
-    <row r="61" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="40" customHeight="1">
       <c r="A61" s="54"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="40" customHeight="1">
       <c r="A62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="40" customHeight="1">
       <c r="A63" s="54"/>
     </row>
-    <row r="64" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="40" customHeight="1">
       <c r="A64" s="54"/>
     </row>
-    <row r="65" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="40" customHeight="1">
       <c r="A65" s="54"/>
     </row>
-    <row r="66" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="40" customHeight="1">
       <c r="A66" s="54"/>
     </row>
   </sheetData>
@@ -11985,7 +12014,7 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="60.83203125" style="2"/>
@@ -11994,7 +12023,7 @@
     <col min="7" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -12017,7 +12046,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="137" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -12031,7 +12060,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="40" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -12045,7 +12074,7 @@
       <c r="E3" s="87"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -12063,7 +12092,7 @@
       </c>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="40" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -12077,7 +12106,7 @@
       <c r="E5" s="88"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -12095,7 +12124,7 @@
       </c>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="40" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
@@ -12109,7 +12138,7 @@
       <c r="E7" s="89"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -12127,7 +12156,7 @@
       </c>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -12143,7 +12172,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -12161,7 +12190,7 @@
       </c>
       <c r="F10" s="96"/>
     </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="40" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
@@ -12177,7 +12206,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
@@ -12195,7 +12224,7 @@
       </c>
       <c r="F12" s="97"/>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
@@ -12211,7 +12240,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -12225,7 +12254,7 @@
       <c r="E14" s="89"/>
       <c r="F14" s="96"/>
     </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
@@ -12239,7 +12268,7 @@
       <c r="E15" s="89"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -12257,7 +12286,7 @@
       </c>
       <c r="F16" s="96"/>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="51">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -12271,7 +12300,7 @@
       <c r="E17" s="89"/>
       <c r="F17" s="98"/>
     </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -12289,7 +12318,7 @@
       </c>
       <c r="F18" s="98"/>
     </row>
-    <row r="19" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="51" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -12303,7 +12332,7 @@
       <c r="E19" s="89"/>
       <c r="F19" s="96"/>
     </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -12321,7 +12350,7 @@
       </c>
       <c r="F20" s="96"/>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
@@ -12337,7 +12366,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -12351,7 +12380,7 @@
       <c r="E22" s="89"/>
       <c r="F22" s="96"/>
     </row>
-    <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="40" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
@@ -12365,7 +12394,7 @@
       <c r="E23" s="90"/>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="35" t="s">
         <v>45</v>
       </c>
@@ -12383,7 +12412,7 @@
       </c>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="51">
       <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
@@ -12397,7 +12426,7 @@
       <c r="E25" s="90"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="35" t="s">
         <v>46</v>
       </c>
@@ -12411,7 +12440,7 @@
       <c r="E26" s="90"/>
       <c r="F26" s="44"/>
     </row>
-    <row r="27" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="40" customHeight="1">
       <c r="A27" s="38" t="s">
         <v>31</v>
       </c>
@@ -12425,7 +12454,7 @@
       <c r="E27" s="89"/>
       <c r="F27" s="42"/>
     </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>47</v>
       </c>
@@ -12443,7 +12472,7 @@
       </c>
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="51">
       <c r="A29" s="38" t="s">
         <v>32</v>
       </c>
@@ -12457,7 +12486,7 @@
       <c r="E29" s="89"/>
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>48</v>
       </c>
@@ -12475,7 +12504,7 @@
       </c>
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="40" customHeight="1">
       <c r="A31" s="38" t="s">
         <v>33</v>
       </c>
@@ -12489,7 +12518,7 @@
       <c r="E31" s="89"/>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A32" s="35" t="s">
         <v>49</v>
       </c>
@@ -12507,7 +12536,7 @@
       </c>
       <c r="F32" s="42"/>
     </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="51">
       <c r="A33" s="38" t="s">
         <v>78</v>
       </c>
@@ -12521,7 +12550,7 @@
       <c r="E33" s="89"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="36" t="s">
         <v>79</v>
       </c>
@@ -12539,7 +12568,7 @@
       </c>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="49" customHeight="1">
       <c r="A35" s="47" t="s">
         <v>50</v>
       </c>
@@ -12555,7 +12584,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -12565,7 +12594,7 @@
       <c r="E36" s="88"/>
       <c r="F36" s="96"/>
     </row>
-    <row r="37" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="48" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>53</v>
       </c>
@@ -12581,7 +12610,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
@@ -12591,7 +12620,7 @@
       <c r="E38" s="88"/>
       <c r="F38" s="96"/>
     </row>
-    <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="40" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>55</v>
       </c>
@@ -12605,7 +12634,7 @@
       <c r="E39" s="88"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A40" s="48" t="s">
         <v>56</v>
       </c>
@@ -12615,7 +12644,7 @@
       <c r="E40" s="88"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="40" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>57</v>
       </c>
@@ -12631,7 +12660,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A42" s="48" t="s">
         <v>58</v>
       </c>
@@ -12649,7 +12678,7 @@
       </c>
       <c r="F42" s="96"/>
     </row>
-    <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="40" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>74</v>
       </c>
@@ -12663,7 +12692,7 @@
       <c r="E43" s="88"/>
       <c r="F43" s="96"/>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A44" s="48" t="s">
         <v>59</v>
       </c>
@@ -12673,7 +12702,7 @@
       <c r="E44" s="88"/>
       <c r="F44" s="96"/>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" s="50" t="s">
         <v>92</v>
       </c>
@@ -12689,7 +12718,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A46" s="53" t="s">
         <v>93</v>
       </c>
@@ -12707,7 +12736,7 @@
       </c>
       <c r="F46" s="96"/>
     </row>
-    <row r="47" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="49" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>51</v>
       </c>
@@ -12721,7 +12750,7 @@
       <c r="E47" s="88"/>
       <c r="F47" s="42"/>
     </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>60</v>
       </c>
@@ -12739,7 +12768,7 @@
       </c>
       <c r="F48" s="42"/>
     </row>
-    <row r="49" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="49" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>61</v>
       </c>
@@ -12753,7 +12782,7 @@
       <c r="E49" s="88"/>
       <c r="F49" s="42"/>
     </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A50" s="52" t="s">
         <v>62</v>
       </c>
@@ -12771,7 +12800,7 @@
       </c>
       <c r="F50" s="42"/>
     </row>
-    <row r="51" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="49" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>63</v>
       </c>
@@ -12785,7 +12814,7 @@
       <c r="E51" s="88"/>
       <c r="F51" s="42"/>
     </row>
-    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A52" s="52" t="s">
         <v>64</v>
       </c>
@@ -12803,7 +12832,7 @@
       </c>
       <c r="F52" s="42"/>
     </row>
-    <row r="53" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="54" customHeight="1">
       <c r="A53" s="51" t="s">
         <v>65</v>
       </c>
@@ -12819,7 +12848,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A54" s="52" t="s">
         <v>66</v>
       </c>
@@ -12837,7 +12866,7 @@
       </c>
       <c r="F54" s="42"/>
     </row>
-    <row r="55" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="49" customHeight="1">
       <c r="A55" s="51" t="s">
         <v>67</v>
       </c>
@@ -12851,7 +12880,7 @@
       <c r="E55" s="88"/>
       <c r="F55" s="42"/>
     </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A56" s="52" t="s">
         <v>68</v>
       </c>
@@ -12869,7 +12898,7 @@
       </c>
       <c r="F56" s="42"/>
     </row>
-    <row r="57" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="49" customHeight="1">
       <c r="A57" s="51" t="s">
         <v>87</v>
       </c>
@@ -12883,7 +12912,7 @@
       <c r="E57" s="88"/>
       <c r="F57" s="96"/>
     </row>
-    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A58" s="52" t="s">
         <v>88</v>
       </c>
@@ -12901,27 +12930,27 @@
       </c>
       <c r="F58" s="96"/>
     </row>
-    <row r="60" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="40" customHeight="1">
       <c r="A60" s="54"/>
     </row>
-    <row r="61" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="40" customHeight="1">
       <c r="A61" s="54"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="40" customHeight="1">
       <c r="A62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="40" customHeight="1">
       <c r="A63" s="54"/>
     </row>
-    <row r="64" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="40" customHeight="1">
       <c r="A64" s="54"/>
     </row>
-    <row r="65" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="40" customHeight="1">
       <c r="A65" s="54"/>
     </row>
-    <row r="66" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="40" customHeight="1">
       <c r="A66" s="54"/>
     </row>
   </sheetData>
@@ -12951,10 +12980,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:B39"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" style="61" customWidth="1"/>
     <col min="2" max="2" width="60.83203125" style="2"/>
@@ -12963,16 +12992,18 @@
     <col min="5" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="C1" s="71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -12981,7 +13012,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="40" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
@@ -12990,7 +13021,7 @@
       </c>
       <c r="C3" s="101"/>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -12999,7 +13030,7 @@
       </c>
       <c r="C4" s="102"/>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
@@ -13008,7 +13039,7 @@
       </c>
       <c r="C5" s="103"/>
     </row>
-    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -13017,7 +13048,7 @@
       </c>
       <c r="C6" s="104"/>
     </row>
-    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119">
       <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
@@ -13028,7 +13059,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -13037,7 +13068,7 @@
       </c>
       <c r="C8" s="106"/>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
@@ -13048,7 +13079,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -13057,7 +13088,7 @@
       </c>
       <c r="C10" s="106"/>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>107</v>
       </c>
@@ -13066,7 +13097,7 @@
       </c>
       <c r="C11" s="103"/>
     </row>
-    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
@@ -13075,7 +13106,7 @@
       </c>
       <c r="C12" s="104"/>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>9</v>
       </c>
@@ -13084,7 +13115,7 @@
       </c>
       <c r="C13" s="103"/>
     </row>
-    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -13093,7 +13124,7 @@
       </c>
       <c r="C14" s="104"/>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>10</v>
       </c>
@@ -13104,7 +13135,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -13113,7 +13144,7 @@
       </c>
       <c r="C16" s="106"/>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
@@ -13122,7 +13153,7 @@
       </c>
       <c r="C17" s="103"/>
     </row>
-    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="36" t="s">
         <v>36</v>
       </c>
@@ -13131,7 +13162,7 @@
       </c>
       <c r="C18" s="104"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="51">
       <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
@@ -13140,7 +13171,7 @@
       </c>
       <c r="C19" s="103"/>
     </row>
-    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -13149,7 +13180,7 @@
       </c>
       <c r="C20" s="104"/>
     </row>
-    <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="51" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>14</v>
       </c>
@@ -13158,7 +13189,7 @@
       </c>
       <c r="C21" s="105"/>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -13167,7 +13198,7 @@
       </c>
       <c r="C22" s="107"/>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>109</v>
       </c>
@@ -13178,7 +13209,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="36" t="s">
         <v>110</v>
       </c>
@@ -13187,7 +13218,7 @@
       </c>
       <c r="C24" s="108"/>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>111</v>
       </c>
@@ -13196,7 +13227,7 @@
       </c>
       <c r="C25" s="99"/>
     </row>
-    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>112</v>
       </c>
@@ -13205,7 +13236,7 @@
       </c>
       <c r="C26" s="100"/>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>113</v>
       </c>
@@ -13216,7 +13247,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>114</v>
       </c>
@@ -13225,7 +13256,7 @@
       </c>
       <c r="C28" s="106"/>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>115</v>
       </c>
@@ -13234,7 +13265,7 @@
       </c>
       <c r="C29" s="105"/>
     </row>
-    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>116</v>
       </c>
@@ -13243,180 +13274,180 @@
       </c>
       <c r="C30" s="106"/>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
       <c r="C31" s="109"/>
     </row>
-    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
       <c r="C32" s="109"/>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
       <c r="C33" s="110"/>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
       <c r="C34" s="110"/>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A35" s="54"/>
       <c r="B35" s="9"/>
       <c r="C35" s="73"/>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
       <c r="C36" s="109"/>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
       <c r="C37" s="109"/>
     </row>
-    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
       <c r="C38" s="109"/>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
       <c r="C39" s="109"/>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
       <c r="C40" s="109"/>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
       <c r="C41" s="109"/>
     </row>
-    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
       <c r="C42" s="109"/>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
       <c r="C43" s="109"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
       <c r="C44" s="109"/>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
       <c r="C45" s="109"/>
     </row>
-    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
       <c r="C46" s="110"/>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
       <c r="C47" s="110"/>
     </row>
-    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
       <c r="C48" s="110"/>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
       <c r="C49" s="110"/>
     </row>
-    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
       <c r="C50" s="109"/>
     </row>
-    <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="43" customHeight="1">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
       <c r="C51" s="109"/>
     </row>
-    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
       <c r="C52" s="109"/>
     </row>
-    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
       <c r="C53" s="109"/>
     </row>
-    <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="49" customHeight="1">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="109"/>
     </row>
-    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
       <c r="C55" s="109"/>
     </row>
-    <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="49" customHeight="1">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
       <c r="C56" s="109"/>
     </row>
-    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
       <c r="C57" s="109"/>
     </row>
-    <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="49" customHeight="1">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
       <c r="C58" s="109"/>
     </row>
-    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
       <c r="C59" s="109"/>
     </row>
-    <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="54" customHeight="1">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
       <c r="C60" s="110"/>
     </row>
-    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
       <c r="C61" s="110"/>
     </row>
-    <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="49" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="58"/>
       <c r="B63" s="9"/>
       <c r="C63" s="74"/>
     </row>
-    <row r="64" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="49" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="60"/>
       <c r="B65" s="9"/>
       <c r="C65" s="74"/>
     </row>
-    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="58"/>
       <c r="B66" s="9"/>
       <c r="C66" s="74"/>
@@ -13462,11 +13493,11 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A31:C43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" style="61" customWidth="1"/>
     <col min="2" max="2" width="60.83203125" style="2"/>
@@ -13475,16 +13506,18 @@
     <col min="5" max="16384" width="60.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="40" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="C1" s="71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="69" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -13493,7 +13526,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="40" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
@@ -13502,7 +13535,7 @@
       </c>
       <c r="C3" s="101"/>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
@@ -13511,7 +13544,7 @@
       </c>
       <c r="C4" s="102"/>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
@@ -13520,7 +13553,7 @@
       </c>
       <c r="C5" s="103"/>
     </row>
-    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
@@ -13529,7 +13562,7 @@
       </c>
       <c r="C6" s="104"/>
     </row>
-    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119">
       <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
@@ -13540,7 +13573,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
@@ -13549,7 +13582,7 @@
       </c>
       <c r="C8" s="106"/>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
@@ -13560,7 +13593,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
@@ -13569,7 +13602,7 @@
       </c>
       <c r="C10" s="106"/>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>107</v>
       </c>
@@ -13578,7 +13611,7 @@
       </c>
       <c r="C11" s="103"/>
     </row>
-    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
@@ -13587,7 +13620,7 @@
       </c>
       <c r="C12" s="104"/>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>9</v>
       </c>
@@ -13596,7 +13629,7 @@
       </c>
       <c r="C13" s="103"/>
     </row>
-    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
@@ -13605,7 +13638,7 @@
       </c>
       <c r="C14" s="104"/>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>10</v>
       </c>
@@ -13616,7 +13649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -13625,7 +13658,7 @@
       </c>
       <c r="C16" s="106"/>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
@@ -13634,7 +13667,7 @@
       </c>
       <c r="C17" s="103"/>
     </row>
-    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A18" s="36" t="s">
         <v>36</v>
       </c>
@@ -13643,7 +13676,7 @@
       </c>
       <c r="C18" s="104"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="51">
       <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
@@ -13652,7 +13685,7 @@
       </c>
       <c r="C19" s="103"/>
     </row>
-    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>35</v>
       </c>
@@ -13661,7 +13694,7 @@
       </c>
       <c r="C20" s="104"/>
     </row>
-    <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="51" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>14</v>
       </c>
@@ -13670,7 +13703,7 @@
       </c>
       <c r="C21" s="105"/>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>34</v>
       </c>
@@ -13679,7 +13712,7 @@
       </c>
       <c r="C22" s="107"/>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>109</v>
       </c>
@@ -13690,7 +13723,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A24" s="36" t="s">
         <v>110</v>
       </c>
@@ -13699,7 +13732,7 @@
       </c>
       <c r="C24" s="108"/>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>111</v>
       </c>
@@ -13708,7 +13741,7 @@
       </c>
       <c r="C25" s="99"/>
     </row>
-    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>112</v>
       </c>
@@ -13717,7 +13750,7 @@
       </c>
       <c r="C26" s="100"/>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>113</v>
       </c>
@@ -13728,7 +13761,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>114</v>
       </c>
@@ -13737,7 +13770,7 @@
       </c>
       <c r="C28" s="106"/>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>115</v>
       </c>
@@ -13746,7 +13779,7 @@
       </c>
       <c r="C29" s="105"/>
     </row>
-    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>116</v>
       </c>
@@ -13755,180 +13788,180 @@
       </c>
       <c r="C30" s="106"/>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
       <c r="C31" s="109"/>
     </row>
-    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
       <c r="C32" s="109"/>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
       <c r="C33" s="110"/>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
       <c r="C34" s="110"/>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A35" s="54"/>
       <c r="B35" s="9"/>
       <c r="C35" s="73"/>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
       <c r="C36" s="109"/>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
       <c r="C37" s="109"/>
     </row>
-    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
       <c r="C38" s="109"/>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
       <c r="C39" s="109"/>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
       <c r="C40" s="109"/>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
       <c r="C41" s="109"/>
     </row>
-    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
       <c r="C42" s="109"/>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
       <c r="C43" s="109"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
       <c r="C44" s="109"/>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
       <c r="C45" s="109"/>
     </row>
-    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
       <c r="C46" s="110"/>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
       <c r="C47" s="110"/>
     </row>
-    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
       <c r="C48" s="110"/>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
       <c r="C49" s="110"/>
     </row>
-    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
       <c r="C50" s="109"/>
     </row>
-    <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="43" customHeight="1">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
       <c r="C51" s="109"/>
     </row>
-    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
       <c r="C52" s="109"/>
     </row>
-    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
       <c r="C53" s="109"/>
     </row>
-    <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="49" customHeight="1">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="109"/>
     </row>
-    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
       <c r="C55" s="109"/>
     </row>
-    <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="49" customHeight="1">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
       <c r="C56" s="109"/>
     </row>
-    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
       <c r="C57" s="109"/>
     </row>
-    <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="49" customHeight="1">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
       <c r="C58" s="109"/>
     </row>
-    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
       <c r="C59" s="109"/>
     </row>
-    <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="54" customHeight="1">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
       <c r="C60" s="110"/>
     </row>
-    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
       <c r="C61" s="110"/>
     </row>
-    <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="49" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="58"/>
       <c r="B63" s="9"/>
       <c r="C63" s="74"/>
     </row>
-    <row r="64" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="49" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="60"/>
       <c r="B65" s="9"/>
       <c r="C65" s="74"/>
     </row>
-    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="58"/>
       <c r="B66" s="9"/>
       <c r="C66" s="74"/>
